--- a/ui-testsuite/src/main/resources/TestData/Import_ATR_Dupplicate.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Import_ATR_Dupplicate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="225">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>CCV</t>
+  </si>
+  <si>
+    <t>EOT</t>
   </si>
 </sst>
 </file>
@@ -1163,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1473,7 @@
         <v>45</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="AV1" s="6" t="s">
         <v>47</v>

--- a/ui-testsuite/src/main/resources/TestData/Import_ATR_Dupplicate.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Import_ATR_Dupplicate.xlsx
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="DD2" sqref="DD2:DE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
